--- a/2016/ILN001MAD/3_LINUX/project_planning.xlsx
+++ b/2016/ILN001MAD/3_LINUX/project_planning.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="530" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="424" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="PLANNING" sheetId="1" state="visible" r:id="rId2"/>
@@ -52,14 +52,12 @@
     <t>Remote connection: SSH II
 Linux Filesystem
 Processes
-Users &amp; Groups
-</t>
+Users &amp; Groups</t>
   </si>
   <si>
     <t>Network
 Utilities
-Package Manager
-</t>
+Package Manager</t>
   </si>
   <si>
     <t>Introduction to Microcontrollers
@@ -219,15 +217,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>347760</xdr:colOff>
+      <xdr:colOff>374400</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>18720</xdr:rowOff>
+      <xdr:rowOff>18360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -242,8 +240,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="5538960" cy="10058040"/>
+          <a:off x="54000" y="0"/>
+          <a:ext cx="5538600" cy="10057680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -263,15 +261,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>636120</xdr:colOff>
+      <xdr:colOff>662760</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>18720</xdr:rowOff>
+      <xdr:rowOff>18360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -286,8 +284,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="8064000" cy="6171840"/>
+          <a:off x="54000" y="0"/>
+          <a:ext cx="8063640" cy="6171480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -305,11 +303,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+    <pageSetUpPr fitToPage="true"/>
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -401,7 +399,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
